--- a/TweakedStrataAnalysis.xlsx
+++ b/TweakedStrataAnalysis.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -21,7 +21,23 @@
     <sheet name="MCSA" sheetId="6" r:id="rId6"/>
     <sheet name="Standards" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -52,6 +68,9 @@
     <t>PRB</t>
   </si>
   <si>
+    <t>PRB SIG</t>
+  </si>
+  <si>
     <t>Weighted Mean</t>
   </si>
   <si>
@@ -238,13 +257,10 @@
     <t>High End</t>
   </si>
   <si>
-    <t>PRB SIG</t>
+    <t>Has to be less than -05 or more than .05</t>
   </si>
   <si>
     <t>PRB Sig</t>
-  </si>
-  <si>
-    <t>Has to be less than -05 or more than .05</t>
   </si>
   <si>
     <t>P Value &gt; .05 insignificant</t>
@@ -254,7 +270,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -332,7 +348,7 @@
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="126">
+  <dxfs count="26">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -340,46 +356,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -475,76 +451,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -635,66 +541,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -740,836 +586,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1899,7 +915,7 @@
       <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.28515625" bestFit="1" customWidth="1"/>
@@ -1915,7 +931,7 @@
     <col min="13" max="13" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1941,24 +957,24 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>70</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2">
         <v>2561</v>
@@ -1997,9 +1013,9 @@
         <v>1.0211004821094469</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B3">
         <v>2553</v>
@@ -2038,9 +1054,9 @@
         <v>0.97533855674592584</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B4">
         <v>2056</v>
@@ -2079,9 +1095,9 @@
         <v>0.99141934692689526</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B5">
         <v>1207</v>
@@ -2122,22 +1138,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G2:G1048576">
-    <cfRule type="cellIs" dxfId="45" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="25" priority="6" operator="greaterThan">
       <formula>15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F1048576">
-    <cfRule type="cellIs" dxfId="44" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="24" priority="5" operator="greaterThan">
       <formula>1.03</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I5">
-    <cfRule type="cellIs" dxfId="43" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="23" priority="2" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H5">
-    <cfRule type="cellIs" dxfId="39" priority="1" operator="between">
+    <cfRule type="cellIs" dxfId="22" priority="1" operator="between">
       <formula>-0.05</formula>
       <formula>0.05</formula>
     </cfRule>
@@ -2154,7 +1170,7 @@
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.28515625" bestFit="1" customWidth="1"/>
@@ -2167,9 +1183,9 @@
     <col min="13" max="13" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -2193,24 +1209,24 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>70</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B2">
         <v>580</v>
@@ -2249,9 +1265,9 @@
         <v>0.97639500972506243</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B3">
         <v>2945</v>
@@ -2290,9 +1306,9 @@
         <v>0.96389926045806662</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B4">
         <v>2388</v>
@@ -2331,9 +1347,9 @@
         <v>0.9969915302548662</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5">
         <v>1231</v>
@@ -2372,9 +1388,9 @@
         <v>1.00043115252231</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6">
         <v>648</v>
@@ -2413,9 +1429,9 @@
         <v>0.99521716516741798</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B7">
         <v>287</v>
@@ -2454,9 +1470,9 @@
         <v>1.0136009034634399</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B8">
         <v>298</v>
@@ -2497,22 +1513,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G2:G1048576">
-    <cfRule type="cellIs" dxfId="38" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="21" priority="6" operator="greaterThan">
       <formula>15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F8">
-    <cfRule type="cellIs" dxfId="37" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="20" priority="5" operator="greaterThan">
       <formula>1.03</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I8">
-    <cfRule type="cellIs" dxfId="36" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="19" priority="2" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2 H4:H6">
-    <cfRule type="cellIs" dxfId="32" priority="1" operator="between">
+    <cfRule type="cellIs" dxfId="18" priority="1" operator="between">
       <formula>-0.05</formula>
       <formula>0.05</formula>
     </cfRule>
@@ -2529,7 +1545,7 @@
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="7" width="12" bestFit="1" customWidth="1"/>
@@ -2541,9 +1557,9 @@
     <col min="13" max="13" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -2567,24 +1583,24 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>70</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B2">
         <v>2821</v>
@@ -2623,9 +1639,9 @@
         <v>0.99268328562116359</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B3">
         <v>296</v>
@@ -2664,9 +1680,9 @@
         <v>0.96590947109205771</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B4">
         <v>2565</v>
@@ -2705,9 +1721,9 @@
         <v>0.96921657526792515</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B5">
         <v>129</v>
@@ -2746,9 +1762,9 @@
         <v>1.0059628062394861</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B6">
         <v>2566</v>
@@ -2789,22 +1805,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G2:G1048576">
-    <cfRule type="cellIs" dxfId="31" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="17" priority="6" operator="greaterThan">
       <formula>15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F6">
-    <cfRule type="cellIs" dxfId="30" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="16" priority="5" operator="greaterThan">
       <formula>1.03</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I6">
-    <cfRule type="cellIs" dxfId="29" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="2" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H4">
-    <cfRule type="cellIs" dxfId="25" priority="1" operator="between">
+    <cfRule type="cellIs" dxfId="14" priority="1" operator="between">
       <formula>-0.05</formula>
       <formula>0.05</formula>
     </cfRule>
@@ -2821,7 +1837,7 @@
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.28515625" bestFit="1" customWidth="1"/>
@@ -2836,9 +1852,9 @@
     <col min="13" max="13" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -2862,22 +1878,22 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>70</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2">
         <v>0.75</v>
       </c>
@@ -2918,7 +1934,7 @@
         <v>1.423354364771573</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13">
       <c r="A3">
         <v>0.9</v>
       </c>
@@ -2959,7 +1975,7 @@
         <v>1.3641835528628701</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13">
       <c r="A4">
         <v>1</v>
       </c>
@@ -3000,7 +2016,7 @@
         <v>0.97239266720995499</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13">
       <c r="A5">
         <v>1.1499999999999999</v>
       </c>
@@ -3041,7 +2057,7 @@
         <v>1.015896011108574</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13">
       <c r="A6">
         <v>1.4</v>
       </c>
@@ -3082,7 +2098,7 @@
         <v>1.031136394297512</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13">
       <c r="A7">
         <v>1.7</v>
       </c>
@@ -3125,25 +2141,25 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G2:G7">
-    <cfRule type="cellIs" dxfId="24" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="7" operator="greaterThan">
       <formula>15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F7">
-    <cfRule type="cellIs" dxfId="23" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="5" operator="lessThan">
       <formula>0.98</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="11" priority="6" operator="greaterThan">
       <formula>1.03</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I7">
-    <cfRule type="cellIs" dxfId="21" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="cellIs" dxfId="16" priority="1" operator="between">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="between">
       <formula>-5</formula>
       <formula>0.05</formula>
     </cfRule>
@@ -3160,7 +2176,7 @@
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.28515625" bestFit="1" customWidth="1"/>
@@ -3175,9 +2191,9 @@
     <col min="13" max="13" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -3202,21 +2218,21 @@
       </c>
       <c r="I1" s="1"/>
       <c r="J1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B2">
         <v>487</v>
@@ -3255,9 +2271,9 @@
         <v>0.98734423232859847</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B3">
         <v>39</v>
@@ -3296,9 +2312,9 @@
         <v>0.94827701622908367</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B4">
         <v>3321</v>
@@ -3337,9 +2353,9 @@
         <v>0.99257283234973737</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B5">
         <v>56</v>
@@ -3378,9 +2394,9 @@
         <v>0.91975191150268953</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B6">
         <v>341</v>
@@ -3419,9 +2435,9 @@
         <v>0.98298908641359417</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B7">
         <v>4</v>
@@ -3460,9 +2476,9 @@
         <v>1.381902233048357</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B8">
         <v>23</v>
@@ -3501,9 +2517,9 @@
         <v>0.87075656509308375</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B9">
         <v>295</v>
@@ -3542,9 +2558,9 @@
         <v>0.99307953965834717</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B10">
         <v>2670</v>
@@ -3583,9 +2599,9 @@
         <v>0.97303819020460369</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13">
       <c r="A11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B11">
         <v>1121</v>
@@ -3624,9 +2640,9 @@
         <v>1.0079063519376179</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13">
       <c r="A12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B12">
         <v>20</v>
@@ -3667,22 +2683,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G2:G12">
-    <cfRule type="cellIs" dxfId="15" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="8" priority="6" operator="greaterThan">
       <formula>15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F12">
-    <cfRule type="cellIs" dxfId="14" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="7" priority="5" operator="greaterThan">
       <formula>1.03</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I12">
-    <cfRule type="cellIs" dxfId="13" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4 H10:H11">
-    <cfRule type="cellIs" dxfId="9" priority="1" operator="between">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="between">
       <formula>-0.05</formula>
       <formula>0.05</formula>
     </cfRule>
@@ -3699,7 +2715,7 @@
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.28515625" bestFit="1" customWidth="1"/>
@@ -3712,9 +2728,9 @@
     <col min="13" max="13" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -3738,24 +2754,24 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>70</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B2">
         <v>902</v>
@@ -3794,9 +2810,9 @@
         <v>0.99214888654482403</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B3">
         <v>3430</v>
@@ -3835,9 +2851,9 @@
         <v>0.99183559030742496</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13">
       <c r="A4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B4">
         <v>10</v>
@@ -3876,9 +2892,9 @@
         <v>1.028977260504214</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B5">
         <v>30</v>
@@ -3917,9 +2933,9 @@
         <v>0.87899444784814817</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13">
       <c r="A6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B6">
         <v>53</v>
@@ -3958,9 +2974,9 @@
         <v>0.9420068861643377</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13">
       <c r="A7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B7">
         <v>243</v>
@@ -3999,9 +3015,9 @@
         <v>0.95321101125154306</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13">
       <c r="A8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B8">
         <v>366</v>
@@ -4040,9 +3056,9 @@
         <v>0.96726097231346309</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13">
       <c r="A9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B9">
         <v>281</v>
@@ -4081,9 +3097,9 @@
         <v>0.97908526277540453</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13">
       <c r="A10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B10">
         <v>728</v>
@@ -4122,9 +3138,9 @@
         <v>0.95069575085333469</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13">
       <c r="A11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B11">
         <v>71</v>
@@ -4163,9 +3179,9 @@
         <v>0.99027483534043137</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13">
       <c r="A12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B12">
         <v>35</v>
@@ -4204,9 +3220,9 @@
         <v>1.0046478413109701</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13">
       <c r="A13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B13">
         <v>5</v>
@@ -4245,9 +3261,9 @@
         <v>1.011383381724976</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13">
       <c r="A14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B14">
         <v>117</v>
@@ -4286,9 +3302,9 @@
         <v>0.99407946811720727</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13">
       <c r="A15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B15">
         <v>910</v>
@@ -4327,9 +3343,9 @@
         <v>0.98386907391426948</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13">
       <c r="A16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B16">
         <v>23</v>
@@ -4368,9 +3384,9 @@
         <v>0.89238035622102707</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13">
       <c r="A17" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B17">
         <v>94</v>
@@ -4409,9 +3425,9 @@
         <v>0.96731048792188712</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13">
       <c r="A18" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B18">
         <v>113</v>
@@ -4450,9 +3466,9 @@
         <v>1.001549170021605</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13">
       <c r="A19" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B19">
         <v>23</v>
@@ -4491,9 +3507,9 @@
         <v>1.0178824833163329</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13">
       <c r="A20" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B20">
         <v>19</v>
@@ -4532,9 +3548,9 @@
         <v>0.78882703477496918</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13">
       <c r="A21" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B21">
         <v>171</v>
@@ -4573,9 +3589,9 @@
         <v>0.96453388441686827</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13">
       <c r="A22" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B22">
         <v>292</v>
@@ -4614,9 +3630,9 @@
         <v>0.99079657206805138</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13">
       <c r="A23" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B23">
         <v>379</v>
@@ -4655,9 +3671,9 @@
         <v>0.99102124200027408</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13">
       <c r="A24" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B24">
         <v>82</v>
@@ -4698,20 +3714,20 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G2:G24">
-    <cfRule type="cellIs" dxfId="8" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="greaterThan">
       <formula>15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F24">
-    <cfRule type="cellIs" dxfId="7" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="lessThan">
       <formula>0.98</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="5" operator="greaterThan">
       <formula>1.03</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I24">
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4733,20 +3749,20 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -4757,7 +3773,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -4768,17 +3784,17 @@
         <v>1.03</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
       <c r="B4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
         <v>72</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>71</v>
       </c>
       <c r="B5" t="s">
         <v>73</v>
